--- a/TA/percobaan.xlsx
+++ b/TA/percobaan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS_A455LD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wisely\Documents\GitHub\Thesis\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12:Z12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +689,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
